--- a/profiles/standard/documents/sammanfattning.xlsx
+++ b/profiles/standard/documents/sammanfattning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\isaba6\git\llm-aicc-testbot\profiles\anamnes\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\isaba6\git\vitalis-demo\profiles\standard\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EFF51E-F703-47FE-8D76-0DEFB44E99F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20130615-C4B0-4065-B148-8B3783821A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,11 +83,6 @@
 Åtgärder (planerade undersökningar, behandlingar och åtgärder): En ny CT hjärna har beställts på grund av patientens kliniska försämring, och en operation är sannolik efter undersökningen. Patienten är fastande i väntan på operation och ska ha RLS-kontroller två gånger per pass.</t>
   </si>
   <si>
-    <t>Sjukdomshistoria (patientens diagnoser, sjukdomshistorik och riskfaktorer (t.ex. sjukdomar i familjen)): Patienten är en 63-årig man med högt blodtryck (HT), högt blodfett (HL), rökare och hade för cirka en månad sedan en fallolycka där han slog i huvudet.
-Sökorsaker (patientens nuvarande symtom och/eller datum för ingrepp): Patienten utvecklade cirka en vecka före operationen smygande vänstersidig svaghet, haltande vänster ben vid gång, balansbesvär, konstant tryckande huvudvärk med smärtskala VAS 6-7 och förvirring. Patienten försämrades kliniskt kvällen 23-01-23 och bedömdes ha indikation för akut operation, som utfördes den 24-01-25.
-Åtgärder (planerade undersökningar, behandlingar och åtgärder): Under operationen utfördes utrymning av ett kroniskt subduralthematom. Postoperativt ska suturtagning ske 12 dagar efter operationen och det subgaleala dränet förväntas vara på plats i 12-24 timmar. Ingen ytterligare antibiotikabehandling planeras.</t>
-  </si>
-  <si>
     <t>Sjukdomshistoria (patientens diagnoser, sjukdomshistorik och riskfaktorer (t.ex. sjukdomar i familjen)): Patienten är en 63-årig man med diagnoserna traumatiskt kroniskt subduralhematom (S065), ospecificerad pneumoni (J189), essentiell hypertension (I109), och hyperlipidemi (E785). Han har tidigare sjukdomshistorik av behandlad hypertoni, hyperlipidemi, appendektomi 2013 och ett konservativt behandlat diskbråck lumbalt 2015. Riskfaktorer inkluderar rökning, högt blodtryck och höga blodfetter.
 Sökorsaker (patientens nuvarande symtom och/eller datum för ingrepp): Patienten inkom efter att ha fallit och slagit huvudet under julen, med symtom som svaghet på vänster sida, påverkad balansförmåga, släpande vänster ben, förvirring, trötthet och huvudvärk. Ingreppet, en utrymning av subduralhematom, genomfördes den 25 januari 2024.
 Åtgärder (planerade undersökningar, behandlingar och åtgärder): Patienten har beviljats hemtjänst två gånger dagligen och ska fortsätta med rehabilitering via kommunens neurovårdsteam. Han är ordinerad Ciprofloxacin 500 mg två gånger om dagen i 7 dagar för behandling av lunginflammation. Suturborttagning är planerad 12 dagar efter operationen, och patienten är sjukskriven 100% från den 24 januari till den 7 februari 2024. Ingen ytterligare uppföljning är planerad via neurokirurgen.</t>
@@ -103,11 +98,6 @@
 Åtgärder (planerade undersökningar, behandlingar och åtgärder): Patienten behandlas med syrgas, har bytt till bredspektrumantibiotikan Pip/Taz 4 g x 3 iv och fått 1 L Ringer Acetat iv. Nästa steg i behandlingen är fortgående kliniska kontroller x 4/dygn.</t>
   </si>
   <si>
-    <t>Sjukdomshistoria (patientens diagnoser, sjukdomshistorik och riskfaktorer (t.ex. sjukdomar i familjen)): Patienten har genomgått en utrymning av KSDH (kronisk subduralhematom), vilket utfördes 24-01-24.
-Sökorsaker (patientens nuvarande symtom och/eller datum för ingrepp): Patienten upplever tilltagande trötthet och feber, registrerad till 38,9 °C på morgonen den aktuella dagen. Det rapporteras även att patienten har hosta med gulaktigt slem och krepitationer i lungorna basalt bilateralt. Röntgen visar infiltrater i lungorna basalt bilateralt som vid pneumoni.
-Åtgärder (planerade undersökningar, behandlingar och åtgärder): Iv Benzylpenicillin 2 g x 3 har ordinerats för behandling av den utvecklade lunginflammationen. Det är planerat att ta nya infektionsvärden nästa dag samt blododling. Mätvärden ska kontrolleras 4-5 gånger per dygn och Alvedon ges vid behov mot feber.</t>
-  </si>
-  <si>
     <t>Sjukdomshistoria (patientens diagnoser, sjukdomshistorik och riskfaktorer (t.ex. sjukdomar i familjen)): Information saknas i dokumentet.
 Sökorsaker (patientens nuvarande symtom och/eller datum för ingrepp): Patienten uppvisar diskret nedsatt kraft i vänster arm och ben samt trötthet, men är ej förvirrad.
 Åtgärder (planerade undersökningar, behandlingar och åtgärder): Planerade åtgärder är fortsatt träning på avdelningen och vårdplanering för extra stöttning av hemtjänst vid hemgång.</t>
@@ -141,6 +131,16 @@
   </si>
   <si>
     <t>2024-01-30: Sammanfattning</t>
+  </si>
+  <si>
+    <t>Sjukdomshistoria (patientens diagnoser, sjukdomshistorik och riskfaktorer (t.ex. sjukdomar i familjen)): Patienten är en 63-årig man med högt blodtryck (HT), högt blodfett (HL), rökare och hade för cirka en månad sedan en fallolycka där han slog i huvudet.
+Sökorsaker (patientens nuvarande symtom och/eller datum för ingrepp): Patienten utvecklade cirka en vecka före operationen smygande vänstersidig svaghet, haltande vänster ben vid gång, balansbesvär, konstant tryckande huvudvärk med smärtskala VAS 6-7 och förvirring. Patienten försämrades kliniskt kvällen 23-01-24 och bedömdes ha indikation för akut operation, som utfördes den 24-01-25.
+Åtgärder (planerade undersökningar, behandlingar och åtgärder): Under operationen utfördes utrymning av ett kroniskt subduralthematom. Postoperativt ska suturtagning ske 12 dagar efter operationen och det subgaleala dränet förväntas vara på plats i 12-24 timmar. Ingen ytterligare antibiotikabehandling planeras.</t>
+  </si>
+  <si>
+    <t>Sjukdomshistoria (patientens diagnoser, sjukdomshistorik och riskfaktorer (t.ex. sjukdomar i familjen)): Patienten har genomgått en utrymning av KSDH (kronisk subduralhematom), vilket utfördes 24-01-25.
+Sökorsaker (patientens nuvarande symtom och/eller datum för ingrepp): Patienten upplever tilltagande trötthet och feber, registrerad till 38,9 °C på morgonen den aktuella dagen. Det rapporteras även att patienten har hosta med gulaktigt slem och krepitationer i lungorna basalt bilateralt. Röntgen visar infiltrater i lungorna basalt bilateralt som vid pneumoni.
+Åtgärder (planerade undersökningar, behandlingar och åtgärder): Iv Benzylpenicillin 2 g x 3 har ordinerats för behandling av den utvecklade lunginflammationen. Det är planerat att ta nya infektionsvärden nästa dag samt blododling. Mätvärden ska kontrolleras 4-5 gånger per dygn och Alvedon ges vid behov mot feber.</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -586,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1234</v>
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1234</v>
@@ -620,15 +620,15 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1234</v>
@@ -637,15 +637,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1234</v>
@@ -654,15 +654,15 @@
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1234</v>
@@ -671,15 +671,15 @@
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1234</v>
@@ -688,15 +688,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1234</v>
@@ -705,10 +705,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
